--- a/Code/Results/Cases/Case_2_227/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_227/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.91142730633387</v>
+        <v>14.91337859113037</v>
       </c>
       <c r="C2">
-        <v>9.077737877926763</v>
+        <v>7.212868576558786</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.89661483493932</v>
+        <v>16.54446560179825</v>
       </c>
       <c r="F2">
-        <v>42.54427840683422</v>
+        <v>47.91076956138986</v>
       </c>
       <c r="G2">
-        <v>2.118762554243057</v>
+        <v>3.709998007382997</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.008672788489807</v>
+        <v>9.650641237403047</v>
       </c>
       <c r="K2">
-        <v>13.81006162087962</v>
+        <v>14.38396544212531</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.05150813420049</v>
+        <v>21.89333937772982</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.95563651194675</v>
+        <v>14.69750152644504</v>
       </c>
       <c r="C3">
-        <v>8.422572664325918</v>
+        <v>7.048716882043077</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.68981822361694</v>
+        <v>16.34417675229887</v>
       </c>
       <c r="F3">
-        <v>40.66844056131826</v>
+        <v>47.6468337714286</v>
       </c>
       <c r="G3">
-        <v>2.127699961728911</v>
+        <v>3.713076479700827</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.02857644135158</v>
+        <v>9.672004212554022</v>
       </c>
       <c r="K3">
-        <v>13.04445707186022</v>
+        <v>14.24343735969443</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.24014799991966</v>
+        <v>21.94678794939214</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.34979196664143</v>
+        <v>14.56777913382746</v>
       </c>
       <c r="C4">
-        <v>8.000513162626511</v>
+        <v>6.948366528903175</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.96403133004526</v>
+        <v>16.22489733094899</v>
       </c>
       <c r="F4">
-        <v>39.51435277206389</v>
+        <v>47.49680410918433</v>
       </c>
       <c r="G4">
-        <v>2.133314498615176</v>
+        <v>3.715063444799427</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.043977673894099</v>
+        <v>9.686331621631279</v>
       </c>
       <c r="K4">
-        <v>12.56253576897877</v>
+        <v>14.16043410670485</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.3606471688353</v>
+        <v>21.98155345644411</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.09831605826602</v>
+        <v>14.51569588720611</v>
       </c>
       <c r="C5">
-        <v>7.823474947052381</v>
+        <v>6.907649200289464</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.66948858068552</v>
+        <v>16.177277846496</v>
       </c>
       <c r="F5">
-        <v>39.04396238862795</v>
+        <v>47.4387331393232</v>
       </c>
       <c r="G5">
-        <v>2.135636286866415</v>
+        <v>3.71589757288675</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.051020312682328</v>
+        <v>9.692474436548054</v>
       </c>
       <c r="K5">
-        <v>12.36336070060559</v>
+        <v>14.12747026955175</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.4109008155315</v>
+        <v>21.9962105622945</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.05628802198925</v>
+        <v>14.50709657600154</v>
       </c>
       <c r="C6">
-        <v>7.793771241132311</v>
+        <v>6.900900709998243</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.62016499667088</v>
+        <v>16.16943197616614</v>
       </c>
       <c r="F6">
-        <v>38.96586494209816</v>
+        <v>47.42927691011432</v>
       </c>
       <c r="G6">
-        <v>2.136023913672422</v>
+        <v>3.716037556989884</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.05223510236369</v>
+        <v>9.693512821083555</v>
       </c>
       <c r="K6">
-        <v>12.33012586860294</v>
+        <v>14.12204963241091</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.41931412914539</v>
+        <v>21.99867395357952</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.34641877037344</v>
+        <v>14.56707347428178</v>
       </c>
       <c r="C7">
-        <v>7.998146080047277</v>
+        <v>6.947816599325293</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.96008693257026</v>
+        <v>16.22425104346007</v>
       </c>
       <c r="F7">
-        <v>39.50800857763751</v>
+        <v>47.49600847166251</v>
       </c>
       <c r="G7">
-        <v>2.133345671714614</v>
+        <v>3.71507459513352</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.044069592129123</v>
+        <v>9.686413233902343</v>
       </c>
       <c r="K7">
-        <v>12.55986062995562</v>
+        <v>14.15998601459908</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.36132028495617</v>
+        <v>21.98174914375264</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.58590428080827</v>
+        <v>14.8383991307027</v>
       </c>
       <c r="C8">
-        <v>8.855898566441223</v>
+        <v>7.156216872843594</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.48837525040908</v>
+        <v>16.47467362709805</v>
       </c>
       <c r="F8">
-        <v>41.89823870653299</v>
+        <v>47.81729528112966</v>
       </c>
       <c r="G8">
-        <v>2.121819015586529</v>
+        <v>3.711039434135619</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.01485483635417</v>
+        <v>9.657755901799456</v>
       </c>
       <c r="K8">
-        <v>13.54863627839548</v>
+        <v>14.33485210530936</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.11556419950613</v>
+        <v>21.91136420701605</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.94427300611274</v>
+        <v>15.38982032614113</v>
       </c>
       <c r="C9">
-        <v>10.38455454301551</v>
+        <v>7.565570908348608</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>19.29363379579702</v>
+        <v>16.99246779069043</v>
       </c>
       <c r="F9">
-        <v>46.55026007554109</v>
+        <v>48.54066435362424</v>
       </c>
       <c r="G9">
-        <v>2.100128716264483</v>
+        <v>3.703890219438893</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.984411209735025</v>
+        <v>9.6111680590927</v>
       </c>
       <c r="K9">
-        <v>15.64640412656114</v>
+        <v>14.70216059448507</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.67213599377867</v>
+        <v>21.78879128321948</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.69418299422585</v>
+        <v>15.80259549736125</v>
       </c>
       <c r="C10">
-        <v>11.41977862993043</v>
+        <v>7.863144877769644</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>21.18300765536524</v>
+        <v>17.38556141738001</v>
       </c>
       <c r="F10">
-        <v>49.93157786782843</v>
+        <v>49.12588197348525</v>
       </c>
       <c r="G10">
-        <v>2.084605622607218</v>
+        <v>3.699097519282732</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.980841204662672</v>
+        <v>9.582804652259194</v>
       </c>
       <c r="K10">
-        <v>17.18263370875183</v>
+        <v>14.98460217898417</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.37224848404727</v>
+        <v>21.70815096868315</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.45907136280085</v>
+        <v>15.99116502496876</v>
       </c>
       <c r="C11">
-        <v>11.87307880103367</v>
+        <v>7.99712596753743</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>22.0076773819714</v>
+        <v>17.56636048707995</v>
       </c>
       <c r="F11">
-        <v>51.46093790613521</v>
+        <v>49.40303063376574</v>
       </c>
       <c r="G11">
-        <v>2.077597129519363</v>
+        <v>3.69701581304721</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.983896368638946</v>
+        <v>9.571176332673783</v>
       </c>
       <c r="K11">
-        <v>17.85339541248705</v>
+        <v>15.11531670214195</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.24215092182862</v>
+        <v>21.67350903194389</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.7444084365259</v>
+        <v>16.06261469055171</v>
       </c>
       <c r="C12">
-        <v>12.04233132259222</v>
+        <v>8.047607746551181</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>22.3151773399506</v>
+        <v>17.63504386510577</v>
       </c>
       <c r="F12">
-        <v>52.03886759788037</v>
+        <v>49.50948221170858</v>
       </c>
       <c r="G12">
-        <v>2.074947410378308</v>
+        <v>3.696241597550211</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.985781527746408</v>
+        <v>9.566956366857898</v>
       </c>
       <c r="K12">
-        <v>18.10353477570724</v>
+        <v>15.16509240996774</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>14.1938702981605</v>
+        <v>21.66068471055528</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.68314468931092</v>
+        <v>16.0472259627333</v>
       </c>
       <c r="C13">
-        <v>12.00598433567384</v>
+        <v>8.036747715955464</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>22.24916071135561</v>
+        <v>17.62024298366814</v>
       </c>
       <c r="F13">
-        <v>51.91445144376776</v>
+        <v>49.48649033750085</v>
       </c>
       <c r="G13">
-        <v>2.07551794413712</v>
+        <v>3.696407713783852</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.98534219739655</v>
+        <v>9.567857051250177</v>
       </c>
       <c r="K13">
-        <v>18.04983165476341</v>
+        <v>15.15436070060096</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14.20422325444294</v>
+        <v>21.6634335855769</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.48263152360276</v>
+        <v>15.99704278603059</v>
       </c>
       <c r="C14">
-        <v>11.8870506417476</v>
+        <v>8.001284522743724</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>22.03307011724826</v>
+        <v>17.57200710116289</v>
       </c>
       <c r="F14">
-        <v>51.50850790871691</v>
+        <v>49.41175879287574</v>
       </c>
       <c r="G14">
-        <v>2.077379071243082</v>
+        <v>3.696951836144792</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.984036530666168</v>
+        <v>9.570825476395514</v>
       </c>
       <c r="K14">
-        <v>17.87405089838634</v>
+        <v>15.11940647995726</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.2381586323646</v>
+        <v>21.67244807714514</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.35925565616814</v>
+        <v>15.96630756970517</v>
       </c>
       <c r="C15">
-        <v>11.81389164990521</v>
+        <v>7.979527665095502</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>21.90009231199836</v>
+        <v>17.54248777045646</v>
       </c>
       <c r="F15">
-        <v>51.25970265093497</v>
+        <v>49.36617694905058</v>
       </c>
       <c r="G15">
-        <v>2.078519511042062</v>
+        <v>3.697286958104371</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.983333344049384</v>
+        <v>9.572667615292557</v>
       </c>
       <c r="K15">
-        <v>17.76588243374682</v>
+        <v>15.09803077774468</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.25907572129268</v>
+        <v>21.67800798587491</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.64358286199421</v>
+        <v>15.79028185657905</v>
       </c>
       <c r="C16">
-        <v>11.38981065526477</v>
+        <v>7.85435624758926</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>21.12843137396595</v>
+        <v>17.37377994452067</v>
       </c>
       <c r="F16">
-        <v>49.83145574474759</v>
+        <v>49.1079836584661</v>
       </c>
       <c r="G16">
-        <v>2.085064431126221</v>
+        <v>3.69923553880845</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.980740314203706</v>
+        <v>9.583590248513323</v>
       </c>
       <c r="K16">
-        <v>17.13824733455227</v>
+        <v>14.97610081966448</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.38088401375277</v>
+        <v>21.71045600465568</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.19667523072676</v>
+        <v>15.6824478638517</v>
       </c>
       <c r="C17">
-        <v>11.12522526323424</v>
+        <v>7.777172490790919</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>20.64627546276486</v>
+        <v>17.27074289327329</v>
       </c>
       <c r="F17">
-        <v>48.95302064157017</v>
+        <v>48.95234088921239</v>
       </c>
       <c r="G17">
-        <v>2.08909082609959</v>
+        <v>3.700456101825858</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.980385800463576</v>
+        <v>9.590617446139671</v>
       </c>
       <c r="K17">
-        <v>16.74614057515308</v>
+        <v>14.90184090386275</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.45727811253169</v>
+        <v>21.7308849059786</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.93668177884468</v>
+        <v>15.62050373298355</v>
       </c>
       <c r="C18">
-        <v>10.97137468807617</v>
+        <v>7.732650937563118</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>20.36566043873961</v>
+        <v>17.21166886867264</v>
       </c>
       <c r="F18">
-        <v>48.44692694762992</v>
+        <v>48.86385251655641</v>
       </c>
       <c r="G18">
-        <v>2.091411918422264</v>
+        <v>3.701167415357232</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.980618709798494</v>
+        <v>9.594779240464604</v>
       </c>
       <c r="K18">
-        <v>16.51795700782111</v>
+        <v>14.85934113996371</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.50180782416339</v>
+        <v>21.74282723319411</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.84814201869345</v>
+        <v>15.59954632909118</v>
       </c>
       <c r="C19">
-        <v>10.91899324071645</v>
+        <v>7.717556528039291</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>20.27007729563702</v>
+        <v>17.19170209825399</v>
       </c>
       <c r="F19">
-        <v>48.27542791322369</v>
+        <v>48.83407142405504</v>
       </c>
       <c r="G19">
-        <v>2.092198793141859</v>
+        <v>3.701409849995738</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.980770989511169</v>
+        <v>9.596208946162541</v>
       </c>
       <c r="K19">
-        <v>16.44023711205362</v>
+        <v>14.84498929198124</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.51698405709209</v>
+        <v>21.7469036977641</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.24455284469586</v>
+        <v>15.69391931445266</v>
       </c>
       <c r="C20">
-        <v>11.15356255507766</v>
+        <v>7.785402435649649</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>20.69794093144758</v>
+        <v>17.28169216178927</v>
       </c>
       <c r="F20">
-        <v>49.04661853249242</v>
+        <v>48.96880289223199</v>
       </c>
       <c r="G20">
-        <v>2.088661692865688</v>
+        <v>3.700325211196452</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.980377945750574</v>
+        <v>9.589856974744757</v>
       </c>
       <c r="K20">
-        <v>16.78815449853599</v>
+        <v>14.90972431480478</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.44908428262198</v>
+        <v>21.72869032494211</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.54164258320138</v>
+        <v>16.01178221266477</v>
       </c>
       <c r="C21">
-        <v>11.92204841864146</v>
+        <v>8.01170823078615</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>22.09666912041117</v>
+        <v>17.58616973444091</v>
       </c>
       <c r="F21">
-        <v>51.62777499385838</v>
+        <v>49.43366908754315</v>
       </c>
       <c r="G21">
-        <v>2.076832326818841</v>
+        <v>3.69679163272694</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.984399804669509</v>
+        <v>9.569948598425642</v>
       </c>
       <c r="K21">
-        <v>17.92578534620784</v>
+        <v>15.12966621456193</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14.22816359851258</v>
+        <v>21.66979232607921</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.36434308091967</v>
+        <v>16.21973965953723</v>
       </c>
       <c r="C22">
-        <v>12.41036825649121</v>
+        <v>8.158109241878883</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>22.98305266717905</v>
+        <v>17.78640828715949</v>
       </c>
       <c r="F22">
-        <v>53.30779790859178</v>
+        <v>49.74620259359973</v>
       </c>
       <c r="G22">
-        <v>2.069124028043743</v>
+        <v>3.694564273300765</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.991302707438066</v>
+        <v>9.55800655406431</v>
       </c>
       <c r="K22">
-        <v>18.64686759182171</v>
+        <v>15.27500497768703</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>14.08956337603267</v>
+        <v>21.63301186153644</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.92747923142776</v>
+        <v>16.10875238133066</v>
       </c>
       <c r="C23">
-        <v>12.15096945245769</v>
+        <v>8.080126845098823</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>22.5124335758052</v>
+        <v>17.6794448159574</v>
       </c>
       <c r="F23">
-        <v>52.41171827871032</v>
+        <v>49.57862402758437</v>
       </c>
       <c r="G23">
-        <v>2.07323722338038</v>
+        <v>3.695745578465374</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.987207666250727</v>
+        <v>9.564282355009766</v>
       </c>
       <c r="K23">
-        <v>18.26400198612619</v>
+        <v>15.19730355612236</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>14.16297890615886</v>
+        <v>21.65248548502386</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.22291692015847</v>
+        <v>15.68873290704608</v>
       </c>
       <c r="C24">
-        <v>11.14075668533659</v>
+        <v>7.781682133084599</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>20.67459363320777</v>
+        <v>17.27674148369393</v>
       </c>
       <c r="F24">
-        <v>49.00430626089192</v>
+        <v>48.96135732305015</v>
       </c>
       <c r="G24">
-        <v>2.088855684238743</v>
+        <v>3.70038435695401</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.980380140690015</v>
+        <v>9.590200404595556</v>
       </c>
       <c r="K24">
-        <v>16.76916860153099</v>
+        <v>14.90615961942163</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.45278681947293</v>
+        <v>21.72968187987348</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.27122222334945</v>
+        <v>15.23900382926386</v>
       </c>
       <c r="C25">
-        <v>9.986889849990282</v>
+        <v>7.455138540409362</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>18.56563496408182</v>
+        <v>16.84990081831638</v>
       </c>
       <c r="F25">
-        <v>45.2974806722408</v>
+        <v>48.33528906675037</v>
       </c>
       <c r="G25">
-        <v>2.105912750308033</v>
+        <v>3.705743106325436</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.989534474180418</v>
+        <v>9.622741884273717</v>
       </c>
       <c r="K25">
-        <v>15.05471373056886</v>
+        <v>14.60041455864276</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.78775188034857</v>
+        <v>21.82029699492069</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_227/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_227/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.91337859113037</v>
+        <v>15.91142730633388</v>
       </c>
       <c r="C2">
-        <v>7.212868576558786</v>
+        <v>9.077737877926593</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.54446560179825</v>
+        <v>16.89661483493948</v>
       </c>
       <c r="F2">
-        <v>47.91076956138986</v>
+        <v>42.54427840683422</v>
       </c>
       <c r="G2">
-        <v>3.709998007382997</v>
+        <v>2.118762554242791</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.650641237403047</v>
+        <v>6.0086727884898</v>
       </c>
       <c r="K2">
-        <v>14.38396544212531</v>
+        <v>13.81006162087964</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>21.89333937772982</v>
+        <v>15.05150813420058</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.69750152644504</v>
+        <v>14.95563651194675</v>
       </c>
       <c r="C3">
-        <v>7.048716882043077</v>
+        <v>8.422572664325987</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>16.34417675229887</v>
+        <v>15.68981822361699</v>
       </c>
       <c r="F3">
-        <v>47.6468337714286</v>
+        <v>40.66844056131823</v>
       </c>
       <c r="G3">
-        <v>3.713076479700827</v>
+        <v>2.127699961728909</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.672004212554022</v>
+        <v>6.028576441351608</v>
       </c>
       <c r="K3">
-        <v>14.24343735969443</v>
+        <v>13.04445707186021</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21.94678794939214</v>
+        <v>15.24014799991973</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.56777913382746</v>
+        <v>14.34979196664144</v>
       </c>
       <c r="C4">
-        <v>6.948366528903175</v>
+        <v>8.000513162626399</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>16.22489733094899</v>
+        <v>14.96403133004523</v>
       </c>
       <c r="F4">
-        <v>47.49680410918433</v>
+        <v>39.51435277206392</v>
       </c>
       <c r="G4">
-        <v>3.715063444799427</v>
+        <v>2.133314498615043</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.686331621631279</v>
+        <v>6.043977673894104</v>
       </c>
       <c r="K4">
-        <v>14.16043410670485</v>
+        <v>12.56253576897879</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>21.98155345644411</v>
+        <v>15.36064716883524</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.51569588720611</v>
+        <v>14.09831605826598</v>
       </c>
       <c r="C5">
-        <v>6.907649200289464</v>
+        <v>7.823474947052264</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16.177277846496</v>
+        <v>14.66948858068555</v>
       </c>
       <c r="F5">
-        <v>47.4387331393232</v>
+        <v>39.04396238862799</v>
       </c>
       <c r="G5">
-        <v>3.71589757288675</v>
+        <v>2.135636286866547</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.692474436548054</v>
+        <v>6.051020312682211</v>
       </c>
       <c r="K5">
-        <v>14.12747026955175</v>
+        <v>12.36336070060556</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>21.9962105622945</v>
+        <v>15.41090081553137</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.50709657600154</v>
+        <v>14.0562880219892</v>
       </c>
       <c r="C6">
-        <v>6.900900709998243</v>
+        <v>7.793771241132327</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16.16943197616614</v>
+        <v>14.62016499667091</v>
       </c>
       <c r="F6">
-        <v>47.42927691011432</v>
+        <v>38.96586494209807</v>
       </c>
       <c r="G6">
-        <v>3.716037556989884</v>
+        <v>2.136023913672556</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.693512821083555</v>
+        <v>6.05223510236369</v>
       </c>
       <c r="K6">
-        <v>14.12204963241091</v>
+        <v>12.3301258686029</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>21.99867395357952</v>
+        <v>15.41931412914536</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.56707347428178</v>
+        <v>14.34641877037348</v>
       </c>
       <c r="C7">
-        <v>6.947816599325293</v>
+        <v>7.998146080047229</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16.22425104346007</v>
+        <v>14.96008693257022</v>
       </c>
       <c r="F7">
-        <v>47.49600847166251</v>
+        <v>39.50800857763764</v>
       </c>
       <c r="G7">
-        <v>3.71507459513352</v>
+        <v>2.13334567171448</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.686413233902343</v>
+        <v>6.044069592129179</v>
       </c>
       <c r="K7">
-        <v>14.15998601459908</v>
+        <v>12.55986062995566</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>21.98174914375264</v>
+        <v>15.3613202849563</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.8383991307027</v>
+        <v>15.5859042808083</v>
       </c>
       <c r="C8">
-        <v>7.156216872843594</v>
+        <v>8.855898566441322</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.47467362709805</v>
+        <v>16.48837525040914</v>
       </c>
       <c r="F8">
-        <v>47.81729528112966</v>
+        <v>41.89823870653292</v>
       </c>
       <c r="G8">
-        <v>3.711039434135619</v>
+        <v>2.121819015586661</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.657755901799456</v>
+        <v>6.014854836354143</v>
       </c>
       <c r="K8">
-        <v>14.33485210530936</v>
+        <v>13.54863627839547</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>21.91136420701605</v>
+        <v>15.11556419950601</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.38982032614113</v>
+        <v>17.94427300611266</v>
       </c>
       <c r="C9">
-        <v>7.565570908348608</v>
+        <v>10.38455454301534</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.99246779069043</v>
+        <v>19.29363379579706</v>
       </c>
       <c r="F9">
-        <v>48.54066435362424</v>
+        <v>46.55026007554107</v>
       </c>
       <c r="G9">
-        <v>3.703890219438893</v>
+        <v>2.100128716264216</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.6111680590927</v>
+        <v>5.984411209735082</v>
       </c>
       <c r="K9">
-        <v>14.70216059448507</v>
+        <v>15.64640412656101</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.78879128321948</v>
+        <v>14.67213599377882</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.80259549736125</v>
+        <v>19.69418299422574</v>
       </c>
       <c r="C10">
-        <v>7.863144877769644</v>
+        <v>11.41977862993055</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.38556141738001</v>
+        <v>21.18300765536518</v>
       </c>
       <c r="F10">
-        <v>49.12588197348525</v>
+        <v>49.93157786782843</v>
       </c>
       <c r="G10">
-        <v>3.699097519282732</v>
+        <v>2.084605622607617</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.582804652259194</v>
+        <v>5.980841204662677</v>
       </c>
       <c r="K10">
-        <v>14.98460217898417</v>
+        <v>17.18263370875179</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.70815096868315</v>
+        <v>14.37224848404742</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.99116502496876</v>
+        <v>20.45907136280092</v>
       </c>
       <c r="C11">
-        <v>7.99712596753743</v>
+        <v>11.87307880103361</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>17.56636048707995</v>
+        <v>22.00767738197129</v>
       </c>
       <c r="F11">
-        <v>49.40303063376574</v>
+        <v>51.46093790613519</v>
       </c>
       <c r="G11">
-        <v>3.69701581304721</v>
+        <v>2.07759712951923</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.571176332673783</v>
+        <v>5.983896368638892</v>
       </c>
       <c r="K11">
-        <v>15.11531670214195</v>
+        <v>17.85339541248708</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.67350903194389</v>
+        <v>14.24215092182841</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.06261469055171</v>
+        <v>20.74440843652588</v>
       </c>
       <c r="C12">
-        <v>8.047607746551181</v>
+        <v>12.04233132259221</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>17.63504386510577</v>
+        <v>22.31517733995053</v>
       </c>
       <c r="F12">
-        <v>49.50948221170858</v>
+        <v>52.03886759788029</v>
       </c>
       <c r="G12">
-        <v>3.696241597550211</v>
+        <v>2.074947410378706</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.566956366857898</v>
+        <v>5.985781527746449</v>
       </c>
       <c r="K12">
-        <v>15.16509240996774</v>
+        <v>18.1035347757072</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.66068471055528</v>
+        <v>14.19387029816048</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.0472259627333</v>
+        <v>20.68314468931094</v>
       </c>
       <c r="C13">
-        <v>8.036747715955464</v>
+        <v>12.00598433567388</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>17.62024298366814</v>
+        <v>22.24916071135565</v>
       </c>
       <c r="F13">
-        <v>49.48649033750085</v>
+        <v>51.91445144376777</v>
       </c>
       <c r="G13">
-        <v>3.696407713783852</v>
+        <v>2.075517944137121</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.567857051250177</v>
+        <v>5.985342197396498</v>
       </c>
       <c r="K13">
-        <v>15.15436070060096</v>
+        <v>18.04983165476346</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.6634335855769</v>
+        <v>14.20422325444287</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.99704278603059</v>
+        <v>20.48263152360269</v>
       </c>
       <c r="C14">
-        <v>8.001284522743724</v>
+        <v>11.88705064174759</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17.57200710116289</v>
+        <v>22.03307011724826</v>
       </c>
       <c r="F14">
-        <v>49.41175879287574</v>
+        <v>51.50850790871693</v>
       </c>
       <c r="G14">
-        <v>3.696951836144792</v>
+        <v>2.077379071243219</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.570825476395514</v>
+        <v>5.984036530666222</v>
       </c>
       <c r="K14">
-        <v>15.11940647995726</v>
+        <v>17.8740508983863</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.67244807714514</v>
+        <v>14.23815863236461</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.96630756970517</v>
+        <v>20.35925565616813</v>
       </c>
       <c r="C15">
-        <v>7.979527665095502</v>
+        <v>11.81389164990516</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>17.54248777045646</v>
+        <v>21.90009231199846</v>
       </c>
       <c r="F15">
-        <v>49.36617694905058</v>
+        <v>51.25970265093497</v>
       </c>
       <c r="G15">
-        <v>3.697286958104371</v>
+        <v>2.078519511042059</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.572667615292557</v>
+        <v>5.983333344049377</v>
       </c>
       <c r="K15">
-        <v>15.09803077774468</v>
+        <v>17.76588243374678</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.67800798587491</v>
+        <v>14.25907572129278</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.79028185657905</v>
+        <v>19.64358286199416</v>
       </c>
       <c r="C16">
-        <v>7.85435624758926</v>
+        <v>11.38981065526472</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.37377994452067</v>
+        <v>21.12843137396593</v>
       </c>
       <c r="F16">
-        <v>49.1079836584661</v>
+        <v>49.83145574474758</v>
       </c>
       <c r="G16">
-        <v>3.69923553880845</v>
+        <v>2.085064431126221</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.583590248513323</v>
+        <v>5.980740314203796</v>
       </c>
       <c r="K16">
-        <v>14.97610081966448</v>
+        <v>17.13824733455224</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.71045600465568</v>
+        <v>14.38088401375287</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.6824478638517</v>
+        <v>19.19667523072679</v>
       </c>
       <c r="C17">
-        <v>7.777172490790919</v>
+        <v>11.12522526323434</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.27074289327329</v>
+        <v>20.64627546276487</v>
       </c>
       <c r="F17">
-        <v>48.95234088921239</v>
+        <v>48.95302064157016</v>
       </c>
       <c r="G17">
-        <v>3.700456101825858</v>
+        <v>2.089090826099859</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.590617446139671</v>
+        <v>5.980385800463562</v>
       </c>
       <c r="K17">
-        <v>14.90184090386275</v>
+        <v>16.74614057515312</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>21.7308849059786</v>
+        <v>14.45727811253164</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.62050373298355</v>
+        <v>18.9366817788447</v>
       </c>
       <c r="C18">
-        <v>7.732650937563118</v>
+        <v>10.97137468807627</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.21166886867264</v>
+        <v>20.36566043873961</v>
       </c>
       <c r="F18">
-        <v>48.86385251655641</v>
+        <v>48.44692694762988</v>
       </c>
       <c r="G18">
-        <v>3.701167415357232</v>
+        <v>2.09141191842213</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.594779240464604</v>
+        <v>5.980618709798473</v>
       </c>
       <c r="K18">
-        <v>14.85934113996371</v>
+        <v>16.51795700782115</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>21.74282723319411</v>
+        <v>14.50180782416336</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.59954632909118</v>
+        <v>18.84814201869345</v>
       </c>
       <c r="C19">
-        <v>7.717556528039291</v>
+        <v>10.91899324071644</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.19170209825399</v>
+        <v>20.27007729563701</v>
       </c>
       <c r="F19">
-        <v>48.83407142405504</v>
+        <v>48.27542791322364</v>
       </c>
       <c r="G19">
-        <v>3.701409849995738</v>
+        <v>2.09219879314226</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.596208946162541</v>
+        <v>5.980770989511129</v>
       </c>
       <c r="K19">
-        <v>14.84498929198124</v>
+        <v>16.44023711205364</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>21.7469036977641</v>
+        <v>14.5169840570921</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.69391931445266</v>
+        <v>19.2445528446959</v>
       </c>
       <c r="C20">
-        <v>7.785402435649649</v>
+        <v>11.15356255507753</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.28169216178927</v>
+        <v>20.69794093144755</v>
       </c>
       <c r="F20">
-        <v>48.96880289223199</v>
+        <v>49.04661853249239</v>
       </c>
       <c r="G20">
-        <v>3.700325211196452</v>
+        <v>2.088661692865691</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.589856974744757</v>
+        <v>5.9803779457505</v>
       </c>
       <c r="K20">
-        <v>14.90972431480478</v>
+        <v>16.78815449853601</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>21.72869032494211</v>
+        <v>14.44908428262191</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.01178221266477</v>
+        <v>20.5416425832014</v>
       </c>
       <c r="C21">
-        <v>8.01170823078615</v>
+        <v>11.92204841864134</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.58616973444091</v>
+        <v>22.09666912041105</v>
       </c>
       <c r="F21">
-        <v>49.43366908754315</v>
+        <v>51.62777499385837</v>
       </c>
       <c r="G21">
-        <v>3.69679163272694</v>
+        <v>2.076832326818578</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.569948598425642</v>
+        <v>5.984399804669556</v>
       </c>
       <c r="K21">
-        <v>15.12966621456193</v>
+        <v>17.9257853462078</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.66979232607921</v>
+        <v>14.2281635985125</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.21973965953723</v>
+        <v>21.36434308091961</v>
       </c>
       <c r="C22">
-        <v>8.158109241878883</v>
+        <v>12.41036825649121</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>17.78640828715949</v>
+        <v>22.98305266717906</v>
       </c>
       <c r="F22">
-        <v>49.74620259359973</v>
+        <v>53.30779790859177</v>
       </c>
       <c r="G22">
-        <v>3.694564273300765</v>
+        <v>2.069124028043744</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.55800655406431</v>
+        <v>5.991302707438074</v>
       </c>
       <c r="K22">
-        <v>15.27500497768703</v>
+        <v>18.64686759182168</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>21.63301186153644</v>
+        <v>14.08956337603262</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.10875238133066</v>
+        <v>20.92747923142781</v>
       </c>
       <c r="C23">
-        <v>8.080126845098823</v>
+        <v>12.1509694524577</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>17.6794448159574</v>
+        <v>22.51243357580527</v>
       </c>
       <c r="F23">
-        <v>49.57862402758437</v>
+        <v>52.41171827871034</v>
       </c>
       <c r="G23">
-        <v>3.695745578465374</v>
+        <v>2.073237223380515</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.564282355009766</v>
+        <v>5.987207666250721</v>
       </c>
       <c r="K23">
-        <v>15.19730355612236</v>
+        <v>18.26400198612619</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.65248548502386</v>
+        <v>14.16297890615881</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.68873290704608</v>
+        <v>19.22291692015848</v>
       </c>
       <c r="C24">
-        <v>7.781682133084599</v>
+        <v>11.14075668533666</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.27674148369393</v>
+        <v>20.6745936332077</v>
       </c>
       <c r="F24">
-        <v>48.96135732305015</v>
+        <v>49.00430626089192</v>
       </c>
       <c r="G24">
-        <v>3.70038435695401</v>
+        <v>2.088855684239008</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.590200404595556</v>
+        <v>5.980380140690039</v>
       </c>
       <c r="K24">
-        <v>14.90615961942163</v>
+        <v>16.76916860153096</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>21.72968187987348</v>
+        <v>14.45278681947301</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.23900382926386</v>
+        <v>17.27122222334959</v>
       </c>
       <c r="C25">
-        <v>7.455138540409362</v>
+        <v>9.986889849990321</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.84990081831638</v>
+        <v>18.56563496408169</v>
       </c>
       <c r="F25">
-        <v>48.33528906675037</v>
+        <v>45.2974806722408</v>
       </c>
       <c r="G25">
-        <v>3.705743106325436</v>
+        <v>2.105912750308166</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.622741884273717</v>
+        <v>5.989534474180355</v>
       </c>
       <c r="K25">
-        <v>14.60041455864276</v>
+        <v>15.05471373056896</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.82029699492069</v>
+        <v>14.78775188034845</v>
       </c>
       <c r="O25">
         <v>0</v>
